--- a/b3.xlsx
+++ b/b3.xlsx
@@ -1,37 +1,327 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunnyw\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2419B3-3DB1-45B9-A681-9538B8E91C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="370" yWindow="760" windowWidth="18830" windowHeight="9430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$66</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+  <si>
+    <t>Search Term</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>陳哲芳</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=5d8da59fe3ba615b731fcd3cd50f3054</t>
+  </si>
+  <si>
+    <t>陳冠翰</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=2cfd2eebed5567fac4fe5cb3c88748ce</t>
+  </si>
+  <si>
+    <t>陳鏡村</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=beb050e4eef6ab6842bb2f22fb1517df</t>
+  </si>
+  <si>
+    <t>陳鏡仁</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=9bd974623ab5c06133bf7da532a274cb</t>
+  </si>
+  <si>
+    <t>陳志展</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=03a8119d26abe4b64921ed120eedffec</t>
+  </si>
+  <si>
+    <t>陳志倫</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=9b353090f0e4458ee0b74d30609a6e68</t>
+  </si>
+  <si>
+    <t>陳志鴻</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=0f1298407a1f05c4d07f7973b57af311</t>
+  </si>
+  <si>
+    <t>陳冠舟</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=39db910c857f0898c8789a868c0ee6a7</t>
+  </si>
+  <si>
+    <t>陳冠豪</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=214b17331495078cc9e8f1741175c924</t>
+  </si>
+  <si>
+    <t>陳冠鏵</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=a9a2f7509bc1409d12dc119c96f1dc09</t>
+  </si>
+  <si>
+    <t>陳冠如 陳哲芳</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=48c80c610b82a86903ca416b4a5e83ec</t>
+  </si>
+  <si>
+    <t>陳冠如 陳冠翰</t>
+  </si>
+  <si>
+    <t>陳冠如 陳鏡村</t>
+  </si>
+  <si>
+    <t>陳冠如 陳鏡仁</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=43b5de2daeb3e0db1261fe53f3c9ad40</t>
+  </si>
+  <si>
+    <t>陳冠如 陳志展</t>
+  </si>
+  <si>
+    <t>陳冠如 陳志倫</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=40cd9a487a05e27a30b10bf646cc6e03</t>
+  </si>
+  <si>
+    <t>陳冠如 陳志鴻</t>
+  </si>
+  <si>
+    <t>陳冠如 陳冠舟</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=b57c054a44e59c5c612a9666c900c7a5</t>
+  </si>
+  <si>
+    <t>陳冠如 陳冠豪</t>
+  </si>
+  <si>
+    <t>陳冠如 陳冠鏵</t>
+  </si>
+  <si>
+    <t>陳哲芳 陳冠翰</t>
+  </si>
+  <si>
+    <t>陳哲芳 陳鏡村</t>
+  </si>
+  <si>
+    <t>陳哲芳 陳鏡仁</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=ad02f14fdb8832b560449f12815ce944</t>
+  </si>
+  <si>
+    <t>陳哲芳 陳志展</t>
+  </si>
+  <si>
+    <t>陳哲芳 陳志倫</t>
+  </si>
+  <si>
+    <t>陳哲芳 陳志鴻</t>
+  </si>
+  <si>
+    <t>陳哲芳 陳冠舟</t>
+  </si>
+  <si>
+    <t>陳哲芳 陳冠豪</t>
+  </si>
+  <si>
+    <t>陳哲芳 陳冠鏵</t>
+  </si>
+  <si>
+    <t>陳冠翰 陳鏡村</t>
+  </si>
+  <si>
+    <t>陳冠翰 陳鏡仁</t>
+  </si>
+  <si>
+    <t>陳冠翰 陳志展</t>
+  </si>
+  <si>
+    <t>陳冠翰 陳志倫</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=3f77a7748be4e2780ecd4730c69381f3</t>
+  </si>
+  <si>
+    <t>陳冠翰 陳志鴻</t>
+  </si>
+  <si>
+    <t>陳冠翰 陳冠舟</t>
+  </si>
+  <si>
+    <t>陳冠翰 陳冠豪</t>
+  </si>
+  <si>
+    <t>陳冠翰 陳冠鏵</t>
+  </si>
+  <si>
+    <t>陳鏡村 陳鏡仁</t>
+  </si>
+  <si>
+    <t>陳鏡村 陳志展</t>
+  </si>
+  <si>
+    <t>陳鏡村 陳志倫</t>
+  </si>
+  <si>
+    <t>陳鏡村 陳志鴻</t>
+  </si>
+  <si>
+    <t>陳鏡村 陳冠舟</t>
+  </si>
+  <si>
+    <t>陳鏡村 陳冠豪</t>
+  </si>
+  <si>
+    <t>陳鏡村 陳冠鏵</t>
+  </si>
+  <si>
+    <t>陳鏡仁 陳志展</t>
+  </si>
+  <si>
+    <t>陳鏡仁 陳志倫</t>
+  </si>
+  <si>
+    <t>陳鏡仁 陳志鴻</t>
+  </si>
+  <si>
+    <t>陳鏡仁 陳冠舟</t>
+  </si>
+  <si>
+    <t>陳鏡仁 陳冠豪</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=2bb915f528ffbfef0b5e954d8531a6c0</t>
+  </si>
+  <si>
+    <t>陳鏡仁 陳冠鏵</t>
+  </si>
+  <si>
+    <t>陳志展 陳志倫</t>
+  </si>
+  <si>
+    <t>陳志展 陳志鴻</t>
+  </si>
+  <si>
+    <t>陳志展 陳冠舟</t>
+  </si>
+  <si>
+    <t>陳志展 陳冠豪</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=d57d86367fbe7dd9d60d76177485f7ea</t>
+  </si>
+  <si>
+    <t>陳志展 陳冠鏵</t>
+  </si>
+  <si>
+    <t>陳志倫 陳志鴻</t>
+  </si>
+  <si>
+    <t>陳志倫 陳冠舟</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=a57f17b776f155f0eba34bfa1ad7f25f</t>
+  </si>
+  <si>
+    <t>陳志倫 陳冠豪</t>
+  </si>
+  <si>
+    <t>陳志倫 陳冠鏵</t>
+  </si>
+  <si>
+    <t>陳志鴻 陳冠舟</t>
+  </si>
+  <si>
+    <t>陳志鴻 陳冠豪</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=0dec37690805dd488aa9623a4801c108</t>
+  </si>
+  <si>
+    <t>陳志鴻 陳冠鏵</t>
+  </si>
+  <si>
+    <t>陳冠舟 陳冠豪</t>
+  </si>
+  <si>
+    <t>陳冠舟 陳冠鏵</t>
+  </si>
+  <si>
+    <t>陳冠豪 陳冠鏵</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +336,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,104 +660,600 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FE6FE2-74B8-4B19-8428-6FE5994B80DF}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Search Term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>頴川浩和</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=e4550f2b6ad67c32d5e1247c32cca25f</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>頴川欽和</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=b290c154f0691c4183ccc05cd0dc3f56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>頴川玲華</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=16606e4ceaa129c773bb68052c4beadf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>頴川万和</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=16ee2e35f53b56c9d79eae05e4ce6628</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>頴川秀玲</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=4dd896ae0d91475d33c9dce8c487dda4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>頴川千穗</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://judgment.judicial.gov.tw/FJUD/qryresultlst.aspx?ty=JUDBOOK&amp;q=106a9a94579653477e0edde80a26e9ff</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B66" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>